--- a/biology/Médecine/Ciré_Ly/Ciré_Ly.xlsx
+++ b/biology/Médecine/Ciré_Ly/Ciré_Ly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cir%C3%A9_Ly</t>
+          <t>Ciré_Ly</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ciré Ly (Ndioum, 15 octobre 1929 - Dakar, 13 juillet 2012) est un médecin et islamologue sénégalais. Il est diplômé des facultés de médecine de Paris et Dakar. Sa thèse de doctorat en médecine, a été la première[a] à être soutenue à la Faculté de Médecine de Dakar[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ciré Ly (Ndioum, 15 octobre 1929 - Dakar, 13 juillet 2012) est un médecin et islamologue sénégalais. Il est diplômé des facultés de médecine de Paris et Dakar. Sa thèse de doctorat en médecine, a été la première[a] à être soutenue à la Faculté de Médecine de Dakar.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cir%C3%A9_Ly</t>
+          <t>Ciré_Ly</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jeune étudiant, il fut à l’initiative de la fondation de l’Association musulmane des étudiants d’Afrique noire (AMEAN)[b] en 1954. Cette association, anti-colonialiste, a œuvré pour faciliter la pratique religieuse des étudiants musulmans[4].
-En 1984, il fonde le Centre de recherche sur l'islam et le développement (Cerid) avec l'avocat Fadilou Diop et le Dr Daouda Diouf[5]. En 1989, avec l'ensemble des membres du Cerid, il considère que « la profanation perpétrée par Salman Rushdie s'est révélée d'une gravité sans égale »[6].
-En 1985, il fonde l’ONG Action de solidarité islamique (Asi)[7].
-Il a été le premier imam de la mosquée de l’Université de Dakar[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jeune étudiant, il fut à l’initiative de la fondation de l’Association musulmane des étudiants d’Afrique noire (AMEAN)[b] en 1954. Cette association, anti-colonialiste, a œuvré pour faciliter la pratique religieuse des étudiants musulmans.
+En 1984, il fonde le Centre de recherche sur l'islam et le développement (Cerid) avec l'avocat Fadilou Diop et le Dr Daouda Diouf. En 1989, avec l'ensemble des membres du Cerid, il considère que « la profanation perpétrée par Salman Rushdie s'est révélée d'une gravité sans égale ».
+En 1985, il fonde l’ONG Action de solidarité islamique (Asi).
+Il a été le premier imam de la mosquée de l’Université de Dakar.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cir%C3%A9_Ly</t>
+          <t>Ciré_Ly</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Contribution à l'étude de la recherche qualitative et quantitative de Prolans, par la réaction de Galli-Mainini, appliquée aux crapauds de la Sénégambie, thèse, Dakar, 1961
 Ciré Ly et al., « Une épidémie de fièvre jaune au Sénégal en 1965 : l'épidémie humaine », Bulletin de l'Organisation Mondiale de la Santé, 1967, p. 113-150.
